--- a/Assets/_Excel/cardType.xlsx
+++ b/Assets/_Excel/cardType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GameMaker\AVG\AWSL\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF7D781-95DF-464C-87C6-58CC69F76412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC2BA0F-6A52-44F7-8E52-A0FD506A8B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -520,6 +524,17 @@
       </c>
       <c r="C8" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
